--- a/2022/01-brumov/01-VKCT2022-Brumov.xlsx
+++ b/2022/01-brumov/01-VKCT2022-Brumov.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Předškoláci I" sheetId="1" state="visible" r:id="rId2"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="378">
   <si>
     <t xml:space="preserve">KATEGORIE</t>
   </si>
@@ -211,30 +211,30 @@
     <t xml:space="preserve">LOUCKÁ Aneta</t>
   </si>
   <si>
-    <t xml:space="preserve">JURČÁK Martin</t>
+    <t xml:space="preserve">Jurča Martin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ŠVACHOVÁ Nikol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snow And Bike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATĚJÍČEK František</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KŘENEK Martin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halenkov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOŠEK Jaroslav</t>
   </si>
   <si>
     <t xml:space="preserve">Tufo Otrokovice</t>
   </si>
   <si>
-    <t xml:space="preserve">ŠVACHOVÁ Nikol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snow And Bike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATĚJÍČEK František</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KŘENEK Martin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halenkov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOŠEK Jaroslav</t>
-  </si>
-  <si>
     <t xml:space="preserve">CHUCHMA Adam</t>
   </si>
   <si>
@@ -715,6 +715,12 @@
     <t xml:space="preserve">Snow&amp;Bike Valašské Klobouky</t>
   </si>
   <si>
+    <t xml:space="preserve">KOLÍNKOVÁ Zuzana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sušenky BB </t>
+  </si>
+  <si>
     <t xml:space="preserve">Muži - M1 (1983-2004)</t>
   </si>
   <si>
@@ -817,6 +823,33 @@
     <t xml:space="preserve">Vizovické střely</t>
   </si>
   <si>
+    <t xml:space="preserve">MACHŮ Lukáš</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slavičín</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMAJKA Michal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilava</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ČERNOBILA Stanislav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generali ČR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAČO Robin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaroslav Dittrich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNF</t>
+  </si>
+  <si>
     <t xml:space="preserve">Muži - M2 (1973-1982)</t>
   </si>
   <si>
@@ -889,6 +922,15 @@
     <t xml:space="preserve">www.zlinska50.cz</t>
   </si>
   <si>
+    <t xml:space="preserve">TOMÁNEK Petr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sv. Štěpán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OldFox</t>
+  </si>
+  <si>
     <t xml:space="preserve">Muži - M3 (1972 a starší)</t>
   </si>
   <si>
@@ -925,6 +967,27 @@
     <t xml:space="preserve">Dubnica nad Váhom</t>
   </si>
   <si>
+    <t xml:space="preserve">ŘEPKA Milan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolo-běžky Brumov-Bylnice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VÁŠA Petr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CykloBulis 4ever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ČASTULÍK Libor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolo Běžky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan Švehlik</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ženy – Klasik</t>
   </si>
   <si>
@@ -994,7 +1057,7 @@
     <t xml:space="preserve">PINĎÁK Jiří</t>
   </si>
   <si>
-    <t xml:space="preserve">ZVONEK SPORT Valašské</t>
+    <t xml:space="preserve">ZVONEK SPORT Valašské Klobouky</t>
   </si>
   <si>
     <t xml:space="preserve">LORENC Jakub</t>
@@ -1039,7 +1102,7 @@
     <t xml:space="preserve">FIALA Aleš</t>
   </si>
   <si>
-    <t xml:space="preserve">Klub lyžeřů Valašské K</t>
+    <t xml:space="preserve">Klub lyžeřů Valašské Klobouky</t>
   </si>
   <si>
     <t xml:space="preserve">ZAHRADNÍČEK Petr</t>
@@ -1075,9 +1138,6 @@
     <t xml:space="preserve">SOPEK Vojtěch</t>
   </si>
   <si>
-    <t xml:space="preserve">ČASTULÍK Libor</t>
-  </si>
-  <si>
     <t xml:space="preserve">Koloběžky</t>
   </si>
   <si>
@@ -1108,7 +1168,7 @@
     <t xml:space="preserve">ŠVACH Vlastimil</t>
   </si>
   <si>
-    <t xml:space="preserve">Survival team Rožnov p</t>
+    <t xml:space="preserve">Survival team Rožnov pod Radhoštěm</t>
   </si>
   <si>
     <t xml:space="preserve">SCHENK Pavel</t>
@@ -1229,7 +1289,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1266,6 +1326,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1289,7 +1357,7 @@
       <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -2000,7 +2068,7 @@
       <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -2517,7 +2585,7 @@
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -3010,10 +3078,10 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -3521,7 +3589,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -3988,10 +4056,10 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -4067,14 +4135,26 @@
       </c>
     </row>
     <row r="5" s="5" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
+      <c r="A5" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>1981</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>226</v>
+      </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="6"/>
+      <c r="G5" s="10" t="n">
+        <v>0.200905092592593</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" s="5" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
@@ -4446,10 +4526,10 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -4466,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>6</v>
@@ -4507,13 +4587,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>1986</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -4529,13 +4609,13 @@
         <v>20</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>1993</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -4551,13 +4631,13 @@
         <v>16</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C6" s="6" t="n">
         <v>1984</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -4573,13 +4653,13 @@
         <v>45</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>2001</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -4595,13 +4675,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>1992</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -4617,13 +4697,13 @@
         <v>29</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>1989</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -4639,13 +4719,13 @@
         <v>49</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>2004</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -4661,13 +4741,13 @@
         <v>44</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C11" s="6" t="n">
         <v>1994</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -4683,13 +4763,13 @@
         <v>30</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C12" s="6" t="n">
         <v>2000</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -4705,7 +4785,7 @@
         <v>47</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C13" s="6" t="n">
         <v>1983</v>
@@ -4727,13 +4807,13 @@
         <v>23</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C14" s="6" t="n">
         <v>1985</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -4749,13 +4829,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C15" s="6" t="n">
         <v>1987</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -4793,13 +4873,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C17" s="6" t="n">
         <v>1983</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -4815,13 +4895,13 @@
         <v>36</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C18" s="6" t="n">
         <v>1988</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -4837,13 +4917,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C19" s="6" t="n">
         <v>1983</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -4859,7 +4939,7 @@
         <v>32</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C20" s="6" t="n">
         <v>1983</v>
@@ -4881,13 +4961,13 @@
         <v>11</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C21" s="6" t="n">
         <v>1994</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -4903,13 +4983,13 @@
         <v>56</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C22" s="6" t="n">
         <v>1985</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -4921,54 +5001,112 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
+      <c r="A23" s="6" t="n">
+        <v>59</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C23" s="6" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>262</v>
+      </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="6"/>
+      <c r="G23" s="8" t="n">
+        <v>0.163481481481481</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
+      <c r="A24" s="6" t="n">
+        <v>51</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>1991</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>264</v>
+      </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="6"/>
+      <c r="G24" s="8" t="n">
+        <v>0.165127314814815</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
+      <c r="A25" s="6" t="n">
+        <v>61</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>1984</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>266</v>
+      </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="6"/>
+      <c r="G25" s="8" t="n">
+        <v>0.19741087962963</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
+      <c r="A26" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>1983</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="6"/>
+      <c r="G26" s="8" t="n">
+        <v>0.209761574074074</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
+      <c r="A27" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>1994</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>233</v>
+      </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="6"/>
+      <c r="H27" s="6" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6"/>
@@ -5119,11 +5257,11 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -5140,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>6</v>
@@ -5181,7 +5319,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>1975</v>
@@ -5203,13 +5341,13 @@
         <v>8</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>1979</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -5225,13 +5363,13 @@
         <v>22</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="C6" s="6" t="n">
         <v>1976</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -5247,13 +5385,13 @@
         <v>38</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>1978</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -5269,13 +5407,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>1977</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -5291,13 +5429,13 @@
         <v>43</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>1974</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -5313,13 +5451,13 @@
         <v>39</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>1979</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -5335,13 +5473,13 @@
         <v>46</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="C11" s="6" t="n">
         <v>1974</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -5357,13 +5495,13 @@
         <v>17</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="C12" s="6" t="n">
         <v>1982</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -5379,7 +5517,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C13" s="6" t="n">
         <v>1977</v>
@@ -5401,13 +5539,13 @@
         <v>14</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="C14" s="6" t="n">
         <v>1978</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -5423,13 +5561,13 @@
         <v>41</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="C15" s="6" t="n">
         <v>1973</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -5445,13 +5583,13 @@
         <v>42</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="C16" s="6" t="n">
         <v>1973</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -5463,24 +5601,48 @@
       </c>
     </row>
     <row r="17" s="5" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
+      <c r="A17" s="6" t="n">
+        <v>58</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>1980</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>295</v>
+      </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="6"/>
+      <c r="G17" s="8" t="n">
+        <v>0.170415509259259</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="18" s="5" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="A18" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>1979</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>296</v>
+      </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="6"/>
+      <c r="G18" s="8" t="n">
+        <v>0.220305555555556</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6"/>
@@ -5722,10 +5884,10 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -5742,7 +5904,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>6</v>
@@ -5783,13 +5945,13 @@
         <v>52</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>1967</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -5805,13 +5967,13 @@
         <v>21</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>1967</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -5827,13 +5989,13 @@
         <v>53</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="C6" s="6" t="n">
         <v>1972</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -5849,13 +6011,13 @@
         <v>48</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>1971</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -5871,7 +6033,7 @@
         <v>54</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>1967</v>
@@ -5893,13 +6055,13 @@
         <v>25</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>1969</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -5911,44 +6073,90 @@
       </c>
     </row>
     <row r="10" s="5" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
+      <c r="A10" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>1967</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>310</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="6"/>
+      <c r="G10" s="8" t="n">
+        <v>0.181342592592593</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" s="5" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
+      <c r="A11" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>1960</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>312</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="6"/>
+      <c r="G11" s="8" t="n">
+        <v>0.19737037037037</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" s="5" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
+      <c r="A12" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>1964</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>314</v>
+      </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="6"/>
+      <c r="G12" s="8" t="n">
+        <v>0.219238425925926</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" s="5" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
+      <c r="A13" s="6" t="n">
+        <v>57</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>1967</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>224</v>
+      </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="14" s="5" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6"/>
@@ -6245,7 +6453,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -6262,7 +6470,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>6</v>
@@ -6303,13 +6511,13 @@
         <v>234</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>1977</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -6325,7 +6533,7 @@
         <v>220</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>1974</v>
@@ -6347,7 +6555,7 @@
         <v>214</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="C6" s="6" t="n">
         <v>1986</v>
@@ -6728,10 +6936,10 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -6748,7 +6956,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>6</v>
@@ -6789,13 +6997,13 @@
         <v>249</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>1996</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -6811,13 +7019,13 @@
         <v>229</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>2004</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -6833,13 +7041,13 @@
         <v>206</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="C6" s="6" t="n">
         <v>1992</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -6855,7 +7063,7 @@
         <v>236</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>1972</v>
@@ -6877,13 +7085,13 @@
         <v>201</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>1986</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -6899,13 +7107,13 @@
         <v>238</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>1987</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -6921,7 +7129,7 @@
         <v>225</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>1977</v>
@@ -6943,13 +7151,13 @@
         <v>18</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="C11" s="6" t="n">
         <v>1995</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -6965,13 +7173,13 @@
         <v>204</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="C12" s="6" t="n">
         <v>1992</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -6987,13 +7195,13 @@
         <v>239</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="C13" s="6" t="n">
         <v>1989</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -7009,13 +7217,13 @@
         <v>209</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="C14" s="6" t="n">
         <v>2001</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -7031,7 +7239,7 @@
         <v>221</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="C15" s="6" t="n">
         <v>1990</v>
@@ -7053,13 +7261,13 @@
         <v>244</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="C16" s="6" t="n">
         <v>1977</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -7075,13 +7283,13 @@
         <v>210</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="C17" s="6" t="n">
         <v>1980</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -7097,7 +7305,7 @@
         <v>222</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="C18" s="6" t="n">
         <v>1993</v>
@@ -7119,13 +7327,13 @@
         <v>208</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="C19" s="6" t="n">
         <v>1995</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -7141,13 +7349,13 @@
         <v>252</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="C20" s="6" t="n">
         <v>1999</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -7163,7 +7371,7 @@
         <v>223</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="C21" s="6" t="n">
         <v>1981</v>
@@ -7185,13 +7393,13 @@
         <v>245</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="C22" s="6" t="n">
         <v>1972</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -7207,7 +7415,7 @@
         <v>224</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="C23" s="6" t="n">
         <v>1984</v>
@@ -7229,13 +7437,13 @@
         <v>240</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="C24" s="6" t="n">
         <v>1967</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -7251,13 +7459,13 @@
         <v>228</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="C25" s="6" t="n">
         <v>1971</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
@@ -7273,13 +7481,13 @@
         <v>241</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="C26" s="6" t="n">
         <v>1969</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -7295,7 +7503,7 @@
         <v>242</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="C27" s="6" t="n">
         <v>1980</v>
@@ -7317,13 +7525,13 @@
         <v>217</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="C28" s="6" t="n">
         <v>1970</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -7339,13 +7547,13 @@
         <v>211</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="C29" s="6" t="n">
         <v>1977</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -7361,13 +7569,13 @@
         <v>215</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="C30" s="6" t="n">
         <v>1965</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
@@ -7383,7 +7591,7 @@
         <v>227</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="C31" s="6" t="n">
         <v>2003</v>
@@ -7405,13 +7613,13 @@
         <v>251</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="C32" s="6" t="n">
         <v>1973</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
@@ -7427,7 +7635,7 @@
         <v>213</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="C33" s="6" t="n">
         <v>1986</v>
@@ -7449,7 +7657,7 @@
         <v>243</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="C34" s="6" t="n">
         <v>1970</v>
@@ -7471,13 +7679,13 @@
         <v>253</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="C35" s="6" t="n">
         <v>1990</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
@@ -7493,13 +7701,13 @@
         <v>226</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="C36" s="6" t="n">
         <v>2002</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
@@ -7515,13 +7723,13 @@
         <v>248</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="C37" s="6" t="n">
         <v>1949</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
@@ -7537,7 +7745,7 @@
         <v>247</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="C38" s="6" t="n">
         <v>1969</v>
@@ -7559,13 +7767,13 @@
         <v>218</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="C39" s="6" t="n">
         <v>1972</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
@@ -7581,7 +7789,7 @@
         <v>237</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="C40" s="6" t="n">
         <v>1985</v>
@@ -7618,10 +7826,10 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q20" activeCellId="0" sqref="Q20"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -7764,7 +7972,7 @@
         <v>2016</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -7780,13 +7988,13 @@
         <v>2026</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>2016</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -7802,7 +8010,7 @@
         <v>2032</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>2016</v>
@@ -7824,13 +8032,13 @@
         <v>2035</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="6" t="n">
         <v>2016</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -7846,13 +8054,13 @@
         <v>2029</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="6" t="n">
         <v>2016</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -8028,7 +8236,7 @@
         <v>2016</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -8460,7 +8668,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -8545,7 +8753,7 @@
         <v>2014</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -9051,7 +9259,7 @@
       <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -9544,7 +9752,7 @@
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -10145,7 +10353,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -10708,7 +10916,7 @@
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -10879,7 +11087,7 @@
         <v>2010</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -11279,11 +11487,11 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -11764,7 +11972,7 @@
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>

--- a/2022/01-brumov/01-VKCT2022-Brumov.xlsx
+++ b/2022/01-brumov/01-VKCT2022-Brumov.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Předškoláci I" sheetId="1" state="visible" r:id="rId2"/>
@@ -325,7 +325,7 @@
     <t xml:space="preserve">Mladší přípravka - dívky (2014-2015)</t>
   </si>
   <si>
-    <t xml:space="preserve">DULEČKOVÁ Kristýna</t>
+    <t xml:space="preserve">DOLEČKOVÁ Kristýna</t>
   </si>
   <si>
     <t xml:space="preserve">Bike Pro Racing</t>
@@ -661,7 +661,7 @@
     <t xml:space="preserve">Tufo CZ Otrokovice</t>
   </si>
   <si>
-    <t xml:space="preserve">ORSZÁKOVÁ Simona</t>
+    <t xml:space="preserve">ORSÁKOVÁ Simona</t>
   </si>
   <si>
     <t xml:space="preserve">Sport Club</t>
@@ -862,7 +862,7 @@
     <t xml:space="preserve">Karolinka</t>
   </si>
   <si>
-    <t xml:space="preserve">REHAK Ivan</t>
+    <t xml:space="preserve">REHÁK Ivan</t>
   </si>
   <si>
     <t xml:space="preserve">bike-centrum Dubnica</t>
@@ -985,7 +985,7 @@
     <t xml:space="preserve">Kolo Běžky</t>
   </si>
   <si>
-    <t xml:space="preserve">Jan Švehlik</t>
+    <t xml:space="preserve">Jan Švehlík</t>
   </si>
   <si>
     <t xml:space="preserve">Ženy – Klasik</t>
@@ -1357,7 +1357,7 @@
       <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -2068,7 +2068,7 @@
       <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -2581,11 +2581,11 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -3081,7 +3081,7 @@
       <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -3589,7 +3589,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -4059,7 +4059,7 @@
       <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -4526,10 +4526,10 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
+      <selection pane="topLeft" activeCell="Q5" activeCellId="0" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -5257,11 +5257,11 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -5884,10 +5884,10 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -6450,10 +6450,10 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -6939,7 +6939,7 @@
       <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -7829,7 +7829,7 @@
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -8665,10 +8665,10 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -9259,7 +9259,7 @@
       <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -9749,10 +9749,10 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -10353,7 +10353,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -10916,7 +10916,7 @@
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -11491,7 +11491,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -11969,10 +11969,10 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>

--- a/2022/01-brumov/01-VKCT2022-Brumov.xlsx
+++ b/2022/01-brumov/01-VKCT2022-Brumov.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Předškoláci I" sheetId="1" state="visible" r:id="rId2"/>
@@ -331,7 +331,7 @@
     <t xml:space="preserve">Bike Pro Racing</t>
   </si>
   <si>
-    <t xml:space="preserve">KŘEKOVÁ Marie</t>
+    <t xml:space="preserve">KŘENKOVÁ Marie</t>
   </si>
   <si>
     <t xml:space="preserve">ŠVACHOVÁ Eliška</t>
@@ -622,7 +622,7 @@
     <t xml:space="preserve">KROUPA Jiří</t>
   </si>
   <si>
-    <t xml:space="preserve">KŘIVA Radim</t>
+    <t xml:space="preserve">KŘIVDA Radim</t>
   </si>
   <si>
     <t xml:space="preserve">SK Edie team</t>
@@ -1357,7 +1357,7 @@
       <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -2064,11 +2064,11 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -2581,11 +2581,11 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -3081,7 +3081,7 @@
       <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -3589,7 +3589,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -4059,7 +4059,7 @@
       <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -4529,7 +4529,7 @@
       <selection pane="topLeft" activeCell="Q5" activeCellId="0" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -5261,7 +5261,7 @@
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -5887,7 +5887,7 @@
       <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -6453,7 +6453,7 @@
       <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -6939,7 +6939,7 @@
       <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -7829,7 +7829,7 @@
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -8665,10 +8665,10 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -9259,7 +9259,7 @@
       <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -9752,7 +9752,7 @@
       <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -10353,7 +10353,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -10916,7 +10916,7 @@
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -11491,7 +11491,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -11972,7 +11972,7 @@
       <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>

--- a/2022/01-brumov/01-VKCT2022-Brumov.xlsx
+++ b/2022/01-brumov/01-VKCT2022-Brumov.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Předškoláci I" sheetId="1" state="visible" r:id="rId2"/>
@@ -478,7 +478,7 @@
     <t xml:space="preserve">DLABAJA Adam</t>
   </si>
   <si>
-    <t xml:space="preserve">PAKÁČ Michal</t>
+    <t xml:space="preserve">PAGÁČ Michal</t>
   </si>
   <si>
     <t xml:space="preserve">Kolokroužek Zlín</t>
@@ -1357,7 +1357,7 @@
       <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -2064,11 +2064,11 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -2585,7 +2585,7 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -3081,7 +3081,7 @@
       <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -3589,7 +3589,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -4059,7 +4059,7 @@
       <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -4529,7 +4529,7 @@
       <selection pane="topLeft" activeCell="Q5" activeCellId="0" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -5261,7 +5261,7 @@
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -5887,7 +5887,7 @@
       <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -6453,7 +6453,7 @@
       <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -6939,7 +6939,7 @@
       <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -7829,7 +7829,7 @@
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -8668,7 +8668,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -9259,7 +9259,7 @@
       <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -9752,7 +9752,7 @@
       <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -10349,11 +10349,11 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -10916,7 +10916,7 @@
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -11491,7 +11491,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -11972,7 +11972,7 @@
       <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>

--- a/2022/01-brumov/01-VKCT2022-Brumov.xlsx
+++ b/2022/01-brumov/01-VKCT2022-Brumov.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Předškoláci I" sheetId="1" state="visible" r:id="rId2"/>
@@ -373,7 +373,7 @@
     <t xml:space="preserve">Vsetín</t>
   </si>
   <si>
-    <t xml:space="preserve">ZANÁČOVÁ Natálie</t>
+    <t xml:space="preserve">JANÁČOVÁ Natálie</t>
   </si>
   <si>
     <t xml:space="preserve">Starší přípravka - dívky (2012-2013)</t>
@@ -598,7 +598,7 @@
     <t xml:space="preserve">Odry</t>
   </si>
   <si>
-    <t xml:space="preserve">SZALOKI Michal</t>
+    <t xml:space="preserve">SZALÓKI Michal</t>
   </si>
   <si>
     <t xml:space="preserve">HÝŽĎAL Vojtěch</t>
@@ -1357,7 +1357,7 @@
       <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -2068,7 +2068,7 @@
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -2585,7 +2585,7 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -3081,7 +3081,7 @@
       <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -3589,7 +3589,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -4059,7 +4059,7 @@
       <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -4529,7 +4529,7 @@
       <selection pane="topLeft" activeCell="Q5" activeCellId="0" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -5261,7 +5261,7 @@
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -5887,7 +5887,7 @@
       <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -6453,7 +6453,7 @@
       <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -6939,7 +6939,7 @@
       <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -7829,7 +7829,7 @@
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -8664,11 +8664,11 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -9259,7 +9259,7 @@
       <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -9752,7 +9752,7 @@
       <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -10349,11 +10349,11 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -10916,7 +10916,7 @@
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -11491,7 +11491,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -11969,10 +11969,10 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
